--- a/state.xlsx
+++ b/state.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="7_{9F9224F3-4C41-4D9D-A413-9A0B9E3983E5}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{7BB58C97-2816-4B7F-9A26-8D6D78CB8C1F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="7_{9F9224F3-4C41-4D9D-A413-9A0B9E3983E5}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{7F06B0C6-2A86-464A-AC5C-82700CDA0082}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>satates/event</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="B4:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0F4559DB-3DE4-5F45-961F-96479A68CF42}">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
